--- a/materials/reading-ranger/stimuli/passage-error-excels/set-9a/trucks_9g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-9a/trucks_9g.xlsx
@@ -766,10 +766,10 @@
     <t xml:space="preserve">ver,</t>
   </si>
   <si>
-    <t xml:space="preserve">prov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ide</t>
+    <t xml:space="preserve">pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vide</t>
   </si>
   <si>
     <t xml:space="preserve">xi</t>
@@ -1256,7 +1256,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1342,8 +1342,6 @@
         <u val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1357,7 +1355,6 @@
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1371,7 +1368,6 @@
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
